--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1678534.587122993</v>
+        <v>1676157.960175627</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86.7114856347289</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>298.8820021440314</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>74.43987397211012</v>
       </c>
       <c r="S4" t="n">
-        <v>162.4166893092612</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>266.2411969918097</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>113.2950864705997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.5817891454362</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>33.01590015522264</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>141.239664091641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>217.1547528334189</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833647</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>16.09765778288691</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>12.96996784159862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892427996</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.76045942438946</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833666</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.118083357703</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
         <v>433.3439259698515</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2006.857255397637</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1616.717923421825</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>638.3296170496764</v>
       </c>
       <c r="M3" t="n">
         <v>1272.508600828715</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.1529317523638</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="S4" t="n">
-        <v>1369.805451661533</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="T4" t="n">
-        <v>1146.826970856268</v>
+        <v>1338.275847378213</v>
       </c>
       <c r="U4" t="n">
-        <v>1146.826970856268</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="V4" t="n">
-        <v>892.1424826503811</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="W4" t="n">
-        <v>892.1424826503811</v>
+        <v>759.7403398450897</v>
       </c>
       <c r="X4" t="n">
-        <v>664.1529317523638</v>
+        <v>531.7507889470724</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.1529317523638</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1511.231752124757</v>
+        <v>862.4791652013146</v>
       </c>
       <c r="C5" t="n">
-        <v>1142.269235184345</v>
+        <v>862.4791652013146</v>
       </c>
       <c r="D5" t="n">
-        <v>784.003536577595</v>
+        <v>862.4791652013146</v>
       </c>
       <c r="E5" t="n">
-        <v>398.2152839793508</v>
+        <v>476.6909126030703</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>469.7454118538669</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,7 +4571,7 @@
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.831592188879</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y5" t="n">
-        <v>1897.831592188879</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
         <v>302.1446891756898</v>
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1117.984498974661</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>600.5777780396833</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.346298904865</v>
+        <v>1235.944923462394</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.383781964454</v>
+        <v>1235.944923462394</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>877.6792248556435</v>
       </c>
       <c r="E8" t="n">
         <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270159</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.012626270159</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y8" t="n">
-        <v>1957.346298904865</v>
+        <v>1622.544763526516</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2363.657119445908</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.05565446885</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1854.980427813048</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1082.889218672183</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5896,10 +5896,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270425</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>481.447947124485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>333.5348535420919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
         <v>589.1422692637306</v>
@@ -7026,13 +7026,13 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718132</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400749</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703146</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024587</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780646</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.4596884482327</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>164.9286282187577</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.003342051665</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194393</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>149.7636788678794</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823192</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392193862</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393219</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741422</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894570.6432741423</v>
+        <v>894570.6432741424</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741422</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26314,10 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
@@ -26335,25 +26335,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26427,13 +26427,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719657</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26442,7 +26442,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26451,7 +26451,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807126.2691507243</v>
+        <v>-807126.2691507245</v>
       </c>
       <c r="C6" t="n">
+        <v>307625.5144251949</v>
+      </c>
+      <c r="D6" t="n">
         <v>307625.5144251952</v>
       </c>
-      <c r="D6" t="n">
-        <v>307625.5144251953</v>
-      </c>
       <c r="E6" t="n">
-        <v>-91470.05011166877</v>
+        <v>-91504.7880371044</v>
       </c>
       <c r="F6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="G6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="H6" t="n">
-        <v>416015.3915128772</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="I6" t="n">
-        <v>416015.3915128772</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="J6" t="n">
-        <v>248410.2137028948</v>
+        <v>248375.4757774589</v>
       </c>
       <c r="K6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874411</v>
       </c>
       <c r="L6" t="n">
-        <v>416015.3915128772</v>
+        <v>415980.6535874416</v>
       </c>
       <c r="M6" t="n">
-        <v>283408.0977839505</v>
+        <v>283373.3598585149</v>
       </c>
       <c r="N6" t="n">
-        <v>416015.391512877</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="O6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="P6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874415</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>267.9715559859541</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>70.84909853443759</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>27.11769844746351</v>
       </c>
       <c r="S4" t="n">
-        <v>32.24577105247624</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>140.6348487499018</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>298.2526163023543</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>61.16690685177571</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546854</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>348.9144699170391</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.9982745644126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28059,22 +28059,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>69.36824550317212</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-4.63134280015893e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>145.7021085929663</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,7 +33506,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>513.0745614164387</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480961</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34793,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>535.6747904601051</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>18.86448192629965</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>374.5201816365645</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409638</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
